--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori2/42/word_level_error_type_summary_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori2/42/word_level_error_type_summary_42.xlsx
@@ -434,6 +434,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>error_type</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>count</t>
@@ -453,27 +458,27 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
       <c r="B5" t="n">

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori2/42/word_level_error_type_summary_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-80_original/ori2/42/word_level_error_type_summary_42.xlsx
@@ -434,11 +434,6 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>error_type</t>
-        </is>
-      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>count</t>
@@ -458,27 +453,27 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
       <c r="B5" t="n">
